--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H2">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I2">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J2">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>396.5367836666667</v>
+        <v>0.09650366666666667</v>
       </c>
       <c r="N2">
-        <v>1189.610351</v>
+        <v>0.289511</v>
       </c>
       <c r="O2">
-        <v>0.9995932331225861</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="P2">
-        <v>0.9995932331225861</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="Q2">
-        <v>12176.92411906741</v>
+        <v>1.917723469599</v>
       </c>
       <c r="R2">
-        <v>109592.3170716067</v>
+        <v>17.259511226391</v>
       </c>
       <c r="S2">
-        <v>0.3700993586763783</v>
+        <v>0.1648266716314449</v>
       </c>
       <c r="T2">
-        <v>0.3700993586763783</v>
+        <v>0.1648266716314449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.708183</v>
+        <v>19.872027</v>
       </c>
       <c r="H3">
-        <v>92.124549</v>
+        <v>59.61608099999999</v>
       </c>
       <c r="I3">
-        <v>0.3702499640981372</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="J3">
-        <v>0.3702499640981371</v>
+        <v>0.2756064822985579</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09650366666666667</v>
+        <v>0.06486</v>
       </c>
       <c r="N3">
-        <v>0.289511</v>
+        <v>0.19458</v>
       </c>
       <c r="O3">
-        <v>0.0002432672481970973</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="P3">
-        <v>0.0002432672481970973</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="Q3">
-        <v>2.963452256171</v>
+        <v>1.28889967122</v>
       </c>
       <c r="R3">
-        <v>26.671070305539</v>
+        <v>11.60009704098</v>
       </c>
       <c r="S3">
-        <v>9.006968991122789E-05</v>
+        <v>0.110779810667113</v>
       </c>
       <c r="T3">
-        <v>9.006968991122787E-05</v>
+        <v>0.110779810667113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.708183</v>
+        <v>12.69729066666667</v>
       </c>
       <c r="H4">
-        <v>92.124549</v>
+        <v>38.091872</v>
       </c>
       <c r="I4">
-        <v>0.3702499640981372</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J4">
-        <v>0.3702499640981371</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06486</v>
+        <v>0.09650366666666667</v>
       </c>
       <c r="N4">
-        <v>0.19458</v>
+        <v>0.289511</v>
       </c>
       <c r="O4">
-        <v>0.0001634996292168214</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="P4">
-        <v>0.0001634996292168214</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="Q4">
-        <v>1.99173274938</v>
+        <v>1.225335106065778</v>
       </c>
       <c r="R4">
-        <v>17.92559474442</v>
+        <v>11.028015954592</v>
       </c>
       <c r="S4">
-        <v>6.053573184758687E-05</v>
+        <v>0.1053164913334547</v>
       </c>
       <c r="T4">
-        <v>6.053573184758685E-05</v>
+        <v>0.1053164913334547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>38.091872</v>
       </c>
       <c r="I5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="J5">
-        <v>0.1530918131325759</v>
+        <v>0.1760995803479087</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>396.5367836666667</v>
+        <v>0.06486</v>
       </c>
       <c r="N5">
-        <v>1189.610351</v>
+        <v>0.19458</v>
       </c>
       <c r="O5">
-        <v>0.9995932331225861</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="P5">
-        <v>0.9995932331225861</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="Q5">
-        <v>5034.942802240786</v>
+        <v>0.82354627264</v>
       </c>
       <c r="R5">
-        <v>45314.48522016707</v>
+        <v>7.411916453760001</v>
       </c>
       <c r="S5">
-        <v>0.1530295404537904</v>
+        <v>0.07078308901445404</v>
       </c>
       <c r="T5">
-        <v>0.1530295404537903</v>
+        <v>0.07078308901445406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.69729066666667</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H6">
-        <v>38.091872</v>
+        <v>118.600751</v>
       </c>
       <c r="I6">
-        <v>0.1530918131325759</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J6">
-        <v>0.1530918131325759</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.289511</v>
       </c>
       <c r="O6">
-        <v>0.0002432672481970973</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="P6">
-        <v>0.0002432672481970973</v>
+        <v>0.5980507797087737</v>
       </c>
       <c r="Q6">
-        <v>1.225335106065778</v>
+        <v>3.815135780306778</v>
       </c>
       <c r="R6">
-        <v>11.028015954592</v>
+        <v>34.336222022761</v>
       </c>
       <c r="S6">
-        <v>3.724222410226599E-05</v>
+        <v>0.3279076167438742</v>
       </c>
       <c r="T6">
-        <v>3.724222410226598E-05</v>
+        <v>0.3279076167438742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.69729066666667</v>
+        <v>39.53358366666667</v>
       </c>
       <c r="H7">
-        <v>38.091872</v>
+        <v>118.600751</v>
       </c>
       <c r="I7">
-        <v>0.1530918131325759</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="J7">
-        <v>0.1530918131325759</v>
+        <v>0.5482939373535334</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.19458</v>
       </c>
       <c r="O7">
-        <v>0.0001634996292168214</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="P7">
-        <v>0.0001634996292168214</v>
+        <v>0.4019492202912262</v>
       </c>
       <c r="Q7">
-        <v>0.82354627264</v>
+        <v>2.56414823662</v>
       </c>
       <c r="R7">
-        <v>7.411916453760001</v>
+        <v>23.07733412958</v>
       </c>
       <c r="S7">
-        <v>2.503045468330708E-05</v>
+        <v>0.2203863206096592</v>
       </c>
       <c r="T7">
-        <v>2.503045468330707E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>39.53358366666667</v>
-      </c>
-      <c r="H8">
-        <v>118.600751</v>
-      </c>
-      <c r="I8">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="J8">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>396.5367836666667</v>
-      </c>
-      <c r="N8">
-        <v>1189.610351</v>
-      </c>
-      <c r="O8">
-        <v>0.9995932331225861</v>
-      </c>
-      <c r="P8">
-        <v>0.9995932331225861</v>
-      </c>
-      <c r="Q8">
-        <v>15676.52011399707</v>
-      </c>
-      <c r="R8">
-        <v>141088.6810259736</v>
-      </c>
-      <c r="S8">
-        <v>0.4764643339924175</v>
-      </c>
-      <c r="T8">
-        <v>0.4764643339924174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>39.53358366666667</v>
-      </c>
-      <c r="H9">
-        <v>118.600751</v>
-      </c>
-      <c r="I9">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="J9">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.09650366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.289511</v>
-      </c>
-      <c r="O9">
-        <v>0.0002432672481970973</v>
-      </c>
-      <c r="P9">
-        <v>0.0002432672481970973</v>
-      </c>
-      <c r="Q9">
-        <v>3.815135780306778</v>
-      </c>
-      <c r="R9">
-        <v>34.336222022761</v>
-      </c>
-      <c r="S9">
-        <v>0.0001159553341836034</v>
-      </c>
-      <c r="T9">
-        <v>0.0001159553341836034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>39.53358366666667</v>
-      </c>
-      <c r="H10">
-        <v>118.600751</v>
-      </c>
-      <c r="I10">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="J10">
-        <v>0.476658222769287</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.06486</v>
-      </c>
-      <c r="N10">
-        <v>0.19458</v>
-      </c>
-      <c r="O10">
-        <v>0.0001634996292168214</v>
-      </c>
-      <c r="P10">
-        <v>0.0001634996292168214</v>
-      </c>
-      <c r="Q10">
-        <v>2.56414823662</v>
-      </c>
-      <c r="R10">
-        <v>23.07733412958</v>
-      </c>
-      <c r="S10">
-        <v>7.793344268592751E-05</v>
-      </c>
-      <c r="T10">
-        <v>7.793344268592748E-05</v>
+        <v>0.2203863206096592</v>
       </c>
     </row>
   </sheetData>
